--- a/kw_clusters_update.xlsx
+++ b/kw_clusters_update.xlsx
@@ -1059,21 +1059,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1130,65 +1124,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,10 +1151,55 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,7 +1212,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,39 +1265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,36 +1287,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1335,7 +1299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,19 +1323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,79 +1353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,7 +1371,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,11 +1483,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,6 +1495,60 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,213 +1568,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,24 +1731,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,7 +1832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="39827200"/>
+          <a:off x="609600" y="36995100"/>
           <a:ext cx="609600" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2058,7 +2052,7 @@
   <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -2066,7 +2060,7 @@
     <col min="3" max="3" width="126.136363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="12.5" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -2129,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>12</v>
@@ -2155,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
@@ -2181,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>14</v>
@@ -2207,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
@@ -2233,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
@@ -2363,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>21</v>
@@ -2415,7 +2409,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>24</v>
@@ -2441,7 +2435,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>25</v>
@@ -2467,7 +2461,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>26</v>
@@ -2493,7 +2487,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>27</v>
@@ -2519,7 +2513,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>28</v>
@@ -2545,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>29</v>
@@ -2571,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>30</v>
@@ -2623,7 +2617,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>32</v>
@@ -2675,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>34</v>
@@ -2701,7 +2695,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>35</v>
@@ -2753,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>37</v>
@@ -2805,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>39</v>
@@ -2831,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>40</v>
@@ -2857,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>41</v>
@@ -2883,7 +2877,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>42</v>
@@ -2909,7 +2903,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>43</v>
@@ -2961,7 +2955,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>45</v>
@@ -2987,7 +2981,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>46</v>
@@ -3013,7 +3007,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>47</v>
@@ -3117,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>51</v>
@@ -3143,7 +3137,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>52</v>
@@ -3195,7 +3189,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>54</v>
@@ -3221,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3247,7 +3241,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>56</v>
@@ -3273,7 +3267,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>57</v>
@@ -3299,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>58</v>
@@ -3325,7 +3319,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>59</v>
@@ -3377,7 +3371,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>61</v>
@@ -3507,7 +3501,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>66</v>
@@ -3559,7 +3553,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>68</v>
@@ -3585,7 +3579,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>69</v>
@@ -3637,7 +3631,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>71</v>
@@ -3663,7 +3657,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>72</v>
@@ -3689,7 +3683,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>73</v>
@@ -3715,7 +3709,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>74</v>
@@ -3923,7 +3917,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>82</v>
@@ -4001,7 +3995,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>85</v>
@@ -4053,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>87</v>
@@ -4157,7 +4151,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>91</v>
@@ -4209,7 +4203,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>93</v>
@@ -4235,7 +4229,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>94</v>
@@ -4261,7 +4255,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>95</v>
@@ -4287,7 +4281,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>96</v>
@@ -4313,7 +4307,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>97</v>
@@ -4339,7 +4333,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>98</v>
@@ -4443,7 +4437,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>102</v>
@@ -4469,7 +4463,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>103</v>
@@ -4495,7 +4489,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>104</v>
@@ -4521,7 +4515,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>105</v>
@@ -4547,7 +4541,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>106</v>
@@ -4573,7 +4567,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>107</v>
@@ -4677,7 +4671,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>111</v>
@@ -4703,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>112</v>
@@ -4729,7 +4723,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>113</v>
@@ -4755,7 +4749,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>114</v>
@@ -4781,7 +4775,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>115</v>
@@ -4807,7 +4801,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>116</v>
@@ -4859,7 +4853,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>118</v>
@@ -4911,7 +4905,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>120</v>
@@ -4937,7 +4931,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>121</v>
@@ -4963,7 +4957,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>122</v>
@@ -5067,7 +5061,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>126</v>
@@ -5093,7 +5087,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>127</v>
@@ -5119,7 +5113,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>128</v>
@@ -5145,7 +5139,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>129</v>
@@ -5171,7 +5165,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>130</v>
@@ -5197,7 +5191,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>131</v>
@@ -5249,7 +5243,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>133</v>
@@ -5275,7 +5269,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>134</v>
@@ -5301,7 +5295,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>135</v>
@@ -5327,7 +5321,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>136</v>
@@ -5353,7 +5347,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>137</v>
@@ -5379,7 +5373,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>138</v>
@@ -5405,7 +5399,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>139</v>
@@ -5431,7 +5425,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>140</v>
@@ -5483,7 +5477,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>142</v>
@@ -5509,7 +5503,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>143</v>
@@ -5535,7 +5529,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>144</v>
@@ -5561,7 +5555,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>145</v>
@@ -5639,7 +5633,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>148</v>
@@ -5691,7 +5685,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>150</v>
@@ -5717,7 +5711,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>151</v>
@@ -5769,7 +5763,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>153</v>
@@ -5795,7 +5789,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>154</v>
@@ -5821,7 +5815,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>155</v>
@@ -5873,7 +5867,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>157</v>
@@ -5899,7 +5893,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>158</v>
@@ -5925,7 +5919,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>159</v>
@@ -6029,7 +6023,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>163</v>
@@ -6159,7 +6153,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>168</v>
@@ -6211,7 +6205,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>170</v>
@@ -6237,7 +6231,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>171</v>
@@ -6263,7 +6257,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>172</v>
@@ -6315,7 +6309,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>174</v>
@@ -6393,7 +6387,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>177</v>
@@ -6445,7 +6439,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>179</v>
@@ -6471,7 +6465,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>180</v>
@@ -6523,7 +6517,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>182</v>
@@ -6549,7 +6543,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>183</v>
@@ -6575,7 +6569,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>184</v>
@@ -6601,7 +6595,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>185</v>
@@ -6627,7 +6621,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>186</v>
@@ -6757,7 +6751,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>191</v>
@@ -6783,7 +6777,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>192</v>
@@ -6809,7 +6803,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>193</v>
@@ -6835,7 +6829,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>194</v>
@@ -6861,7 +6855,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>195</v>
@@ -6939,7 +6933,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>198</v>
@@ -6965,7 +6959,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>199</v>
@@ -6991,7 +6985,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>200</v>
@@ -7017,7 +7011,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>201</v>
@@ -7043,7 +7037,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>202</v>
@@ -7069,7 +7063,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>203</v>
@@ -7095,7 +7089,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>204</v>
@@ -7121,7 +7115,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>205</v>
@@ -7147,7 +7141,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>206</v>
@@ -7173,7 +7167,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>207</v>
@@ -7225,7 +7219,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>209</v>
@@ -7251,7 +7245,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>210</v>
@@ -7329,7 +7323,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>213</v>
@@ -7381,7 +7375,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>215</v>
@@ -7459,7 +7453,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>218</v>
@@ -7485,7 +7479,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>219</v>
@@ -7537,7 +7531,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>221</v>
@@ -7589,7 +7583,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>223</v>
@@ -7641,7 +7635,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>225</v>
@@ -7667,7 +7661,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>226</v>
@@ -7719,7 +7713,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>228</v>
@@ -7745,7 +7739,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>229</v>
@@ -7771,7 +7765,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>230</v>
@@ -7797,7 +7791,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>231</v>
@@ -7823,7 +7817,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>232</v>
@@ -7849,7 +7843,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>233</v>
@@ -7875,7 +7869,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>234</v>
@@ -7901,7 +7895,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>235</v>
@@ -7927,7 +7921,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>236</v>
@@ -8005,7 +7999,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>239</v>
@@ -8031,7 +8025,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>240</v>
@@ -8161,7 +8155,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>245</v>
@@ -8213,7 +8207,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>247</v>
@@ -8239,7 +8233,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>248</v>
@@ -8265,7 +8259,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>249</v>
@@ -8343,7 +8337,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>252</v>
@@ -8395,7 +8389,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>254</v>
@@ -8551,7 +8545,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>260</v>
@@ -8577,7 +8571,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>261</v>
@@ -8629,7 +8623,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>263</v>
@@ -8655,7 +8649,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>264</v>
@@ -8681,7 +8675,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>265</v>
@@ -8707,7 +8701,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>266</v>
@@ -8733,7 +8727,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>267</v>
@@ -8759,7 +8753,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>268</v>
@@ -8785,7 +8779,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>269</v>
@@ -8811,7 +8805,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>270</v>
@@ -8863,7 +8857,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>272</v>
@@ -8889,7 +8883,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>273</v>
@@ -8941,7 +8935,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>275</v>
@@ -8967,7 +8961,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>276</v>
@@ -8993,7 +8987,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>277</v>
@@ -9019,7 +9013,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>278</v>
@@ -9045,7 +9039,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>279</v>
@@ -9071,7 +9065,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>280</v>
@@ -9097,7 +9091,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>281</v>
@@ -9175,7 +9169,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>284</v>
@@ -9201,7 +9195,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>285</v>
@@ -9357,7 +9351,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>291</v>
@@ -9409,7 +9403,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>293</v>
@@ -9487,7 +9481,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>296</v>
@@ -9539,7 +9533,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>298</v>
@@ -9565,7 +9559,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>299</v>
@@ -9863,902 +9857,1348 @@
   <sheetPr/>
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="14" spans="1:2">
-      <c r="A1" s="1"/>
+    <row r="1" ht="13" spans="1:2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="14" spans="1:2">
-      <c r="A2" s="1"/>
+    <row r="2" ht="13" spans="1:2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="14" spans="1:2">
-      <c r="A3" s="1"/>
+    <row r="3" ht="13" spans="1:2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="14" spans="1:2">
-      <c r="A4" s="1"/>
+    <row r="4" ht="13" spans="1:2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" ht="14" spans="1:2">
-      <c r="A5" s="1"/>
+    <row r="5" ht="13" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="14" spans="1:2">
-      <c r="A6" s="1"/>
+    <row r="6" ht="13" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" ht="14" spans="1:2">
-      <c r="A7" s="1"/>
+    <row r="7" ht="13" spans="1:2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="14" spans="1:2">
-      <c r="A8" s="1"/>
+    <row r="8" ht="13" spans="1:2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" ht="14" spans="1:2">
-      <c r="A9" s="1"/>
+    <row r="9" ht="13" spans="1:2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="14" spans="1:2">
-      <c r="A10" s="1"/>
+    <row r="10" ht="13" spans="1:2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" ht="14" spans="1:2">
-      <c r="A11" s="1"/>
+    <row r="11" ht="13" spans="1:2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" ht="14" spans="1:2">
-      <c r="A12" s="1"/>
+    <row r="12" ht="13" spans="1:2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" ht="14" spans="1:2">
-      <c r="A13" s="1"/>
+    <row r="13" ht="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" ht="14" spans="1:2">
-      <c r="A14" s="1"/>
+    <row r="14" ht="13" spans="1:2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" ht="14" spans="1:2">
-      <c r="A15" s="1"/>
+    <row r="15" ht="13" spans="1:2">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" ht="14" spans="1:2">
-      <c r="A16" s="1"/>
+    <row r="16" ht="13" spans="1:2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" ht="14" spans="1:2">
-      <c r="A17" s="1"/>
+    <row r="17" ht="13" spans="1:2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" ht="14" spans="1:2">
-      <c r="A18" s="1"/>
+    <row r="18" ht="13" spans="1:2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" ht="14" spans="1:2">
-      <c r="A19" s="1"/>
+    <row r="19" ht="13" spans="1:2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" ht="14" spans="1:2">
-      <c r="A20" s="1"/>
+    <row r="20" ht="13" spans="1:2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" ht="14" spans="1:2">
-      <c r="A21" s="1"/>
+    <row r="21" ht="13" spans="1:2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" ht="14" spans="1:2">
-      <c r="A22" s="1"/>
+    <row r="22" ht="13" spans="1:2">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" ht="14" spans="1:2">
-      <c r="A23" s="1"/>
+    <row r="23" ht="13" spans="1:2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" ht="14" spans="1:2">
-      <c r="A24" s="1"/>
+    <row r="24" ht="13" spans="1:2">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" ht="14" spans="1:2">
-      <c r="A25" s="1"/>
+    <row r="25" ht="13" spans="1:2">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" ht="14" spans="1:2">
-      <c r="A26" s="1"/>
+    <row r="26" ht="13" spans="1:2">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" ht="14" spans="1:2">
-      <c r="A27" s="1"/>
+    <row r="27" ht="13" spans="1:2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" ht="14" spans="1:2">
-      <c r="A28" s="1"/>
+    <row r="28" ht="13" spans="1:2">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" ht="14" spans="1:2">
-      <c r="A29" s="1"/>
+    <row r="29" ht="13" spans="1:2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" ht="14" spans="1:2">
-      <c r="A30" s="1"/>
+    <row r="30" ht="13" spans="1:2">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" ht="14" spans="1:2">
-      <c r="A31" s="1"/>
+    <row r="31" ht="13" spans="1:2">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" ht="14" spans="1:2">
-      <c r="A32" s="1"/>
+    <row r="32" ht="13" spans="1:2">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" ht="14" spans="1:2">
-      <c r="A33" s="1"/>
+    <row r="33" ht="13" spans="1:2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" ht="14" spans="1:2">
-      <c r="A34" s="1"/>
+    <row r="34" ht="13" spans="1:2">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" ht="14" spans="1:2">
-      <c r="A35" s="1"/>
+    <row r="35" ht="13" spans="1:2">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" ht="14" spans="1:2">
-      <c r="A36" s="1"/>
+    <row r="36" ht="13" spans="1:2">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" ht="14" spans="1:2">
-      <c r="A37" s="1"/>
+    <row r="37" ht="13" spans="1:2">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="14" spans="1:2">
-      <c r="A38" s="1"/>
+    <row r="38" ht="13" spans="1:2">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" ht="14" spans="1:2">
-      <c r="A39" s="1"/>
+    <row r="39" ht="13" spans="1:2">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" ht="14" spans="1:2">
-      <c r="A40" s="1"/>
+    <row r="40" ht="13" spans="1:2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" ht="14" spans="1:2">
-      <c r="A41" s="1"/>
+    <row r="41" ht="13" spans="1:2">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" ht="14" spans="1:2">
-      <c r="A42" s="1"/>
+    <row r="42" ht="13" spans="1:2">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" ht="14" spans="1:2">
-      <c r="A43" s="1"/>
+    <row r="43" ht="13" spans="1:2">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" ht="14" spans="1:2">
-      <c r="A44" s="1"/>
+    <row r="44" ht="13" spans="1:2">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" ht="14" spans="1:2">
-      <c r="A45" s="1"/>
+    <row r="45" ht="13" spans="1:2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" ht="14" spans="1:2">
-      <c r="A46" s="1"/>
+    <row r="46" ht="13" spans="1:2">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" ht="14" spans="1:2">
-      <c r="A47" s="1"/>
+    <row r="47" ht="13" spans="1:2">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" ht="14" spans="1:2">
-      <c r="A48" s="1"/>
+    <row r="48" ht="13" spans="1:2">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" ht="14" spans="1:2">
-      <c r="A49" s="1"/>
+    <row r="49" ht="13" spans="1:2">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" ht="14" spans="1:2">
-      <c r="A50" s="1"/>
+    <row r="50" ht="13" spans="1:2">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" ht="14" spans="1:2">
-      <c r="A51" s="1"/>
+    <row r="51" ht="13" spans="1:2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" ht="14" spans="1:2">
-      <c r="A52" s="1"/>
+    <row r="52" ht="13" spans="1:2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" ht="14" spans="1:2">
-      <c r="A53" s="1"/>
+    <row r="53" ht="13" spans="1:2">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" ht="14" spans="1:2">
-      <c r="A54" s="1"/>
+    <row r="54" ht="13" spans="1:2">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" ht="14" spans="1:2">
-      <c r="A55" s="1"/>
+    <row r="55" ht="13" spans="1:2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" ht="14" spans="1:2">
-      <c r="A56" s="1"/>
+    <row r="56" ht="13" spans="1:2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" ht="14" spans="1:2">
-      <c r="A57" s="1"/>
+    <row r="57" ht="13" spans="1:2">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" ht="14" spans="1:2">
-      <c r="A58" s="1"/>
+    <row r="58" ht="13" spans="1:2">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" ht="14" spans="1:2">
-      <c r="A59" s="1"/>
+    <row r="59" ht="13" spans="1:2">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" ht="14" spans="1:2">
-      <c r="A60" s="1"/>
+    <row r="60" ht="13" spans="1:2">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" ht="14" spans="1:2">
-      <c r="A61" s="1"/>
+    <row r="61" ht="13" spans="1:2">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="14" spans="1:2">
-      <c r="A62" s="1"/>
+    <row r="62" ht="13" spans="1:2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" ht="14" spans="1:2">
-      <c r="A63" s="1"/>
+    <row r="63" ht="13" spans="1:2">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" ht="14" spans="1:2">
-      <c r="A64" s="1"/>
+    <row r="64" ht="13" spans="1:2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" ht="14" spans="1:2">
-      <c r="A65" s="1"/>
+    <row r="65" ht="13" spans="1:2">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" ht="14" spans="1:2">
-      <c r="A66" s="1"/>
+    <row r="66" ht="13" spans="1:2">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" ht="14" spans="1:2">
-      <c r="A67" s="1"/>
+    <row r="67" ht="13" spans="1:2">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="14" spans="1:2">
-      <c r="A68" s="1"/>
+    <row r="68" ht="13" spans="1:2">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" ht="14" spans="1:2">
-      <c r="A69" s="1"/>
+    <row r="69" ht="13" spans="1:2">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="14" spans="1:2">
-      <c r="A70" s="1"/>
+    <row r="70" ht="13" spans="1:2">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" ht="14" spans="1:2">
-      <c r="A71" s="1"/>
+    <row r="71" ht="13" spans="1:2">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="14" spans="1:2">
-      <c r="A72" s="1"/>
+    <row r="72" ht="13" spans="1:2">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" ht="14" spans="1:2">
-      <c r="A73" s="1"/>
+    <row r="73" ht="13" spans="1:2">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="14" spans="1:2">
-      <c r="A74" s="1"/>
+    <row r="74" ht="13" spans="1:2">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" ht="14" spans="1:2">
-      <c r="A75" s="1"/>
+    <row r="75" ht="13" spans="1:2">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="14" spans="1:2">
-      <c r="A76" s="1"/>
+    <row r="76" ht="13" spans="1:2">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" ht="14" spans="1:2">
-      <c r="A77" s="1"/>
+    <row r="77" ht="13" spans="1:2">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" ht="14" spans="1:2">
-      <c r="A78" s="1"/>
+    <row r="78" ht="13" spans="1:2">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" ht="14" spans="1:2">
-      <c r="A79" s="1"/>
+    <row r="79" ht="13" spans="1:2">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" ht="14" spans="1:2">
-      <c r="A80" s="1"/>
+    <row r="80" ht="13" spans="1:2">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" ht="14" spans="1:2">
-      <c r="A81" s="1"/>
+    <row r="81" ht="13" spans="1:2">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" ht="14" spans="1:2">
-      <c r="A82" s="1"/>
+    <row r="82" ht="13" spans="1:2">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" ht="14" spans="1:2">
-      <c r="A83" s="1"/>
+    <row r="83" ht="13" spans="1:2">
+      <c r="A83" s="1">
+        <v>3</v>
+      </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" ht="14" spans="1:2">
-      <c r="A84" s="1"/>
+    <row r="84" ht="13" spans="1:2">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" ht="14" spans="1:2">
-      <c r="A85" s="1"/>
+    <row r="85" ht="13" spans="1:2">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="14" spans="1:2">
-      <c r="A86" s="1"/>
+    <row r="86" ht="13" spans="1:2">
+      <c r="A86" s="1">
+        <v>3</v>
+      </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" ht="14" spans="1:2">
-      <c r="A87" s="1"/>
+    <row r="87" ht="13" spans="1:2">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" ht="14" spans="1:2">
-      <c r="A88" s="1"/>
+    <row r="88" ht="13" spans="1:2">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" ht="14" spans="1:2">
-      <c r="A89" s="1"/>
+    <row r="89" ht="13" spans="1:2">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="14" spans="1:2">
-      <c r="A90" s="1"/>
+    <row r="90" ht="13" spans="1:2">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" ht="14" spans="1:2">
-      <c r="A91" s="1"/>
+    <row r="91" ht="13" spans="1:2">
+      <c r="A91" s="1">
+        <v>3</v>
+      </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" ht="14" spans="1:2">
-      <c r="A92" s="1"/>
+    <row r="92" ht="13" spans="1:2">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" ht="14" spans="1:2">
-      <c r="A93" s="1"/>
+    <row r="93" ht="13" spans="1:2">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" ht="14" spans="1:2">
-      <c r="A94" s="1"/>
+    <row r="94" ht="13" spans="1:2">
+      <c r="A94" s="1">
+        <v>3</v>
+      </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" ht="14" spans="1:2">
-      <c r="A95" s="1"/>
+    <row r="95" ht="13" spans="1:2">
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" ht="14" spans="1:2">
-      <c r="A96" s="1"/>
+    <row r="96" ht="13" spans="1:2">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" ht="14" spans="1:2">
-      <c r="A97" s="1"/>
+    <row r="97" ht="13" spans="1:2">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" ht="14" spans="1:2">
-      <c r="A98" s="1"/>
+    <row r="98" ht="13" spans="1:2">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" ht="14" spans="1:2">
-      <c r="A99" s="1"/>
+    <row r="99" ht="13" spans="1:2">
+      <c r="A99" s="1">
+        <v>3</v>
+      </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" ht="14" spans="1:2">
-      <c r="A100" s="1"/>
+    <row r="100" ht="13" spans="1:2">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" ht="14" spans="1:2">
-      <c r="A101" s="1"/>
+    <row r="101" ht="13" spans="1:2">
+      <c r="A101" s="1">
+        <v>3</v>
+      </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" ht="14" spans="1:2">
-      <c r="A102" s="1"/>
+    <row r="102" ht="13" spans="1:2">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" ht="14" spans="1:2">
-      <c r="A103" s="1"/>
+    <row r="103" ht="13" spans="1:2">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" ht="14" spans="1:2">
-      <c r="A104" s="1"/>
+    <row r="104" ht="13" spans="1:2">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" ht="14" spans="1:2">
-      <c r="A105" s="1"/>
+    <row r="105" ht="13" spans="1:2">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" ht="14" spans="1:2">
-      <c r="A106" s="1"/>
+    <row r="106" ht="13" spans="1:2">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" ht="14" spans="1:2">
-      <c r="A107" s="1"/>
+    <row r="107" ht="13" spans="1:2">
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" ht="14" spans="1:2">
-      <c r="A108" s="1"/>
+    <row r="108" ht="13" spans="1:2">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" ht="14" spans="1:2">
-      <c r="A109" s="1"/>
+    <row r="109" ht="13" spans="1:2">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" ht="14" spans="1:2">
-      <c r="A110" s="1"/>
+    <row r="110" ht="13" spans="1:2">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" ht="14" spans="1:2">
-      <c r="A111" s="1"/>
+    <row r="111" ht="13" spans="1:2">
+      <c r="A111" s="1">
+        <v>3</v>
+      </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" ht="14" spans="1:2">
-      <c r="A112" s="1"/>
+    <row r="112" ht="13" spans="1:2">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" ht="14" spans="1:2">
-      <c r="A113" s="1"/>
+    <row r="113" ht="13" spans="1:2">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" ht="14" spans="1:2">
-      <c r="A114" s="1"/>
+    <row r="114" ht="13" spans="1:2">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" ht="14" spans="1:2">
-      <c r="A115" s="1"/>
+    <row r="115" ht="13" spans="1:2">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" ht="14" spans="1:2">
-      <c r="A116" s="1"/>
+    <row r="116" ht="13" spans="1:2">
+      <c r="A116" s="1">
+        <v>3</v>
+      </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" ht="14" spans="1:2">
-      <c r="A117" s="1"/>
+    <row r="117" ht="13" spans="1:2">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" ht="14" spans="1:2">
-      <c r="A118" s="1"/>
+    <row r="118" ht="13" spans="1:2">
+      <c r="A118" s="1">
+        <v>3</v>
+      </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" ht="14" spans="1:2">
-      <c r="A119" s="1"/>
+    <row r="119" ht="13" spans="1:2">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" ht="14" spans="1:2">
-      <c r="A120" s="1"/>
+    <row r="120" ht="13" spans="1:2">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" ht="14" spans="1:2">
-      <c r="A121" s="1"/>
+    <row r="121" ht="13" spans="1:2">
+      <c r="A121" s="1">
+        <v>3</v>
+      </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" ht="14" spans="1:2">
-      <c r="A122" s="1"/>
+    <row r="122" ht="13" spans="1:2">
+      <c r="A122" s="1">
+        <v>3</v>
+      </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" ht="14" spans="1:2">
-      <c r="A123" s="1"/>
+    <row r="123" ht="13" spans="1:2">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" ht="14" spans="1:2">
-      <c r="A124" s="1"/>
+    <row r="124" ht="13" spans="1:2">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" ht="14" spans="1:2">
-      <c r="A125" s="1"/>
+    <row r="125" ht="13" spans="1:2">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" ht="14" spans="1:2">
-      <c r="A126" s="1"/>
+    <row r="126" ht="13" spans="1:2">
+      <c r="A126" s="1">
+        <v>2</v>
+      </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" ht="14" spans="1:2">
-      <c r="A127" s="1"/>
+    <row r="127" ht="13" spans="1:2">
+      <c r="A127" s="1">
+        <v>3</v>
+      </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" ht="14" spans="1:2">
-      <c r="A128" s="1"/>
+    <row r="128" ht="13" spans="1:2">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" ht="14" spans="1:2">
-      <c r="A129" s="1"/>
+    <row r="129" ht="13" spans="1:2">
+      <c r="A129" s="1">
+        <v>3</v>
+      </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" ht="14" spans="1:2">
-      <c r="A130" s="1"/>
+    <row r="130" ht="13" spans="1:2">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" ht="14" spans="1:2">
-      <c r="A131" s="1"/>
+    <row r="131" ht="13" spans="1:2">
+      <c r="A131" s="1">
+        <v>3</v>
+      </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" ht="14" spans="1:2">
-      <c r="A132" s="1"/>
+    <row r="132" ht="13" spans="1:2">
+      <c r="A132" s="1">
+        <v>3</v>
+      </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" ht="14" spans="1:2">
-      <c r="A133" s="1"/>
+    <row r="133" ht="13" spans="1:2">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" ht="14" spans="1:2">
-      <c r="A134" s="1"/>
+    <row r="134" ht="13" spans="1:2">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" ht="14" spans="1:2">
-      <c r="A135" s="1"/>
+    <row r="135" ht="13" spans="1:2">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" ht="14" spans="1:2">
-      <c r="A136" s="1"/>
+    <row r="136" ht="13" spans="1:2">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" ht="14" spans="1:2">
-      <c r="A137" s="1"/>
+    <row r="137" ht="13" spans="1:2">
+      <c r="A137" s="1">
+        <v>3</v>
+      </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" ht="14" spans="1:2">
-      <c r="A138" s="1"/>
+    <row r="138" ht="13" spans="1:2">
+      <c r="A138" s="1">
+        <v>3</v>
+      </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" ht="14" spans="1:2">
-      <c r="A139" s="1"/>
+    <row r="139" ht="13" spans="1:2">
+      <c r="A139" s="1">
+        <v>3</v>
+      </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" ht="14" spans="1:2">
-      <c r="A140" s="1"/>
+    <row r="140" ht="13" spans="1:2">
+      <c r="A140" s="1">
+        <v>3</v>
+      </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" ht="14" spans="1:2">
-      <c r="A141" s="1"/>
+    <row r="141" ht="13" spans="1:2">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" ht="14" spans="1:2">
-      <c r="A142" s="1"/>
+    <row r="142" ht="13" spans="1:2">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" ht="14" spans="1:2">
-      <c r="A143" s="1"/>
+    <row r="143" ht="13" spans="1:2">
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" ht="14" spans="1:2">
-      <c r="A144" s="1"/>
+    <row r="144" ht="13" spans="1:2">
+      <c r="A144" s="1">
+        <v>3</v>
+      </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" ht="14" spans="1:2">
-      <c r="A145" s="1"/>
+    <row r="145" ht="13" spans="1:2">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" ht="14" spans="1:2">
-      <c r="A146" s="1"/>
+    <row r="146" ht="13" spans="1:2">
+      <c r="A146" s="1">
+        <v>3</v>
+      </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" ht="14" spans="1:2">
-      <c r="A147" s="1"/>
+    <row r="147" ht="13" spans="1:2">
+      <c r="A147" s="1">
+        <v>3</v>
+      </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" ht="14" spans="1:2">
-      <c r="A148" s="1"/>
+    <row r="148" ht="13" spans="1:2">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" ht="14" spans="1:2">
-      <c r="A149" s="1"/>
+    <row r="149" ht="13" spans="1:2">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" ht="14" spans="1:2">
-      <c r="A150" s="1"/>
+    <row r="150" ht="13" spans="1:2">
+      <c r="A150" s="1">
+        <v>3</v>
+      </c>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" ht="14" spans="1:2">
-      <c r="A151" s="1"/>
+    <row r="151" ht="13" spans="1:2">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" ht="14" spans="1:2">
-      <c r="A152" s="1"/>
+    <row r="152" ht="13" spans="1:2">
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" ht="14" spans="1:2">
-      <c r="A153" s="1"/>
+    <row r="153" ht="13" spans="1:2">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" ht="14" spans="1:2">
-      <c r="A154" s="1"/>
+    <row r="154" ht="13" spans="1:2">
+      <c r="A154" s="1">
+        <v>3</v>
+      </c>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" ht="14" spans="1:2">
-      <c r="A155" s="1"/>
+    <row r="155" ht="13" spans="1:2">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" ht="14" spans="1:2">
-      <c r="A156" s="1"/>
+    <row r="156" ht="13" spans="1:2">
+      <c r="A156" s="1">
+        <v>3</v>
+      </c>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" ht="14" spans="1:2">
-      <c r="A157" s="1"/>
+    <row r="157" ht="13" spans="1:2">
+      <c r="A157" s="1">
+        <v>3</v>
+      </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" ht="14" spans="1:2">
-      <c r="A158" s="1"/>
+    <row r="158" ht="13" spans="1:2">
+      <c r="A158" s="1">
+        <v>3</v>
+      </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" ht="14" spans="1:2">
-      <c r="A159" s="1"/>
+    <row r="159" ht="13" spans="1:2">
+      <c r="A159" s="1">
+        <v>3</v>
+      </c>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" ht="14" spans="1:2">
-      <c r="A160" s="1"/>
+    <row r="160" ht="13" spans="1:2">
+      <c r="A160" s="1">
+        <v>3</v>
+      </c>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" ht="14" spans="1:2">
-      <c r="A161" s="1"/>
+    <row r="161" ht="13" spans="1:2">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" ht="14" spans="1:2">
-      <c r="A162" s="1"/>
+    <row r="162" ht="13" spans="1:2">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" ht="14" spans="1:2">
-      <c r="A163" s="1"/>
+    <row r="163" ht="13" spans="1:2">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" ht="14" spans="1:2">
-      <c r="A164" s="1"/>
+    <row r="164" ht="13" spans="1:2">
+      <c r="A164" s="1">
+        <v>3</v>
+      </c>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" ht="14" spans="1:2">
-      <c r="A165" s="1"/>
+    <row r="165" ht="13" spans="1:2">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" ht="14" spans="1:2">
-      <c r="A166" s="1"/>
+    <row r="166" ht="13" spans="1:2">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" ht="14" spans="1:2">
-      <c r="A167" s="1"/>
+    <row r="167" ht="13" spans="1:2">
+      <c r="A167" s="1">
+        <v>0</v>
+      </c>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" ht="14" spans="1:2">
-      <c r="A168" s="1"/>
+    <row r="168" ht="13" spans="1:2">
+      <c r="A168" s="1">
+        <v>0</v>
+      </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" ht="14" spans="1:2">
-      <c r="A169" s="1"/>
+    <row r="169" ht="13" spans="1:2">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" ht="14" spans="1:2">
-      <c r="A170" s="1"/>
+    <row r="170" ht="13" spans="1:2">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" ht="14" spans="1:2">
-      <c r="A171" s="1"/>
+    <row r="171" ht="13" spans="1:2">
+      <c r="A171" s="1">
+        <v>0</v>
+      </c>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" ht="14" spans="1:2">
-      <c r="A172" s="1"/>
+    <row r="172" ht="13" spans="1:2">
+      <c r="A172" s="1">
+        <v>0</v>
+      </c>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" ht="14" spans="1:2">
-      <c r="A173" s="1"/>
+    <row r="173" ht="13" spans="1:2">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" ht="14" spans="1:2">
-      <c r="A174" s="1"/>
+    <row r="174" ht="13" spans="1:2">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" ht="14" spans="1:2">
-      <c r="A175" s="1"/>
+    <row r="175" ht="13" spans="1:2">
+      <c r="A175" s="1">
+        <v>3</v>
+      </c>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" ht="14" spans="1:2">
-      <c r="A176" s="1"/>
+    <row r="176" ht="13" spans="1:2">
+      <c r="A176" s="1">
+        <v>3</v>
+      </c>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" ht="14" spans="1:2">
-      <c r="A177" s="1"/>
+    <row r="177" ht="13" spans="1:2">
+      <c r="A177" s="1">
+        <v>0</v>
+      </c>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" ht="14" spans="1:2">
-      <c r="A178" s="1"/>
+    <row r="178" ht="13" spans="1:2">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" ht="14" spans="1:2">
-      <c r="A179" s="1"/>
+    <row r="179" ht="13" spans="1:2">
+      <c r="A179" s="1">
+        <v>0</v>
+      </c>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" ht="14" spans="1:2">
-      <c r="A180" s="1"/>
+    <row r="180" ht="13" spans="1:2">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" ht="14" spans="1:2">
-      <c r="A181" s="1"/>
+    <row r="181" ht="13" spans="1:2">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" ht="14" spans="1:2">
-      <c r="A182" s="1"/>
+    <row r="182" ht="13" spans="1:2">
+      <c r="A182" s="1">
+        <v>3</v>
+      </c>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" ht="14" spans="1:2">
-      <c r="A183" s="1"/>
+    <row r="183" ht="13" spans="1:2">
+      <c r="A183" s="1">
+        <v>3</v>
+      </c>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" ht="14" spans="1:2">
-      <c r="A184" s="1"/>
+    <row r="184" ht="13" spans="1:2">
+      <c r="A184" s="1">
+        <v>3</v>
+      </c>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" ht="14" spans="1:2">
-      <c r="A185" s="1"/>
+    <row r="185" ht="13" spans="1:2">
+      <c r="A185" s="1">
+        <v>0</v>
+      </c>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" ht="14" spans="1:2">
-      <c r="A186" s="1"/>
+    <row r="186" ht="13" spans="1:2">
+      <c r="A186" s="1">
+        <v>3</v>
+      </c>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" ht="14" spans="1:2">
-      <c r="A187" s="1"/>
+    <row r="187" ht="13" spans="1:2">
+      <c r="A187" s="1">
+        <v>3</v>
+      </c>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" ht="14" spans="1:2">
-      <c r="A188" s="1"/>
+    <row r="188" ht="13" spans="1:2">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" ht="14" spans="1:2">
-      <c r="A189" s="1"/>
+    <row r="189" ht="13" spans="1:2">
+      <c r="A189" s="1">
+        <v>3</v>
+      </c>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" ht="14" spans="1:2">
-      <c r="A190" s="1"/>
+    <row r="190" ht="13" spans="1:2">
+      <c r="A190" s="1">
+        <v>3</v>
+      </c>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" ht="14" spans="1:2">
-      <c r="A191" s="1"/>
+    <row r="191" ht="13" spans="1:2">
+      <c r="A191" s="1">
+        <v>3</v>
+      </c>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" ht="14" spans="1:2">
-      <c r="A192" s="1"/>
+    <row r="192" ht="13" spans="1:2">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" ht="14" spans="1:2">
-      <c r="A193" s="1"/>
+    <row r="193" ht="13" spans="1:2">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" ht="14" spans="1:2">
-      <c r="A194" s="1"/>
+    <row r="194" ht="13" spans="1:2">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" ht="14" spans="1:2">
-      <c r="A195" s="1"/>
+    <row r="195" ht="13" spans="1:2">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" ht="14" spans="1:2">
-      <c r="A196" s="1"/>
+    <row r="196" ht="13" spans="1:2">
+      <c r="A196" s="1">
+        <v>0</v>
+      </c>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" ht="14" spans="1:2">
-      <c r="A197" s="1"/>
+    <row r="197" ht="13" spans="1:2">
+      <c r="A197" s="1">
+        <v>3</v>
+      </c>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" ht="14" spans="1:2">
-      <c r="A198" s="1"/>
+    <row r="198" ht="13" spans="1:2">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" ht="14" spans="1:2">
-      <c r="A199" s="1"/>
+    <row r="199" ht="13" spans="1:2">
+      <c r="A199" s="1">
+        <v>3</v>
+      </c>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" ht="14" spans="1:2">
-      <c r="A200" s="1"/>
+    <row r="200" ht="13" spans="1:2">
+      <c r="A200" s="1">
+        <v>0</v>
+      </c>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" ht="14" spans="1:2">
-      <c r="A201" s="1"/>
+    <row r="201" ht="13" spans="1:2">
+      <c r="A201" s="1">
+        <v>0</v>
+      </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" ht="14" spans="1:2">
-      <c r="A202" s="1"/>
+    <row r="202" ht="13" spans="1:2">
+      <c r="A202" s="1">
+        <v>3</v>
+      </c>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" ht="14" spans="1:2">
-      <c r="A203" s="1"/>
+    <row r="203" ht="13" spans="1:2">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" ht="14" spans="1:2">
-      <c r="A204" s="1"/>
+    <row r="204" ht="13" spans="1:2">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" ht="14" spans="1:2">
-      <c r="A205" s="1"/>
+    <row r="205" ht="13" spans="1:2">
+      <c r="A205" s="1">
+        <v>3</v>
+      </c>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" ht="14" spans="1:2">
-      <c r="A206" s="1"/>
+    <row r="206" ht="13" spans="1:2">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" ht="14" spans="1:2">
-      <c r="A207" s="1"/>
+    <row r="207" ht="13" spans="1:2">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" ht="14" spans="1:2">
-      <c r="A208" s="1"/>
+    <row r="208" ht="13" spans="1:2">
+      <c r="A208" s="1">
+        <v>3</v>
+      </c>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" ht="14" spans="1:2">
-      <c r="A209" s="1"/>
+    <row r="209" ht="13" spans="1:2">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" ht="14" spans="1:2">
-      <c r="A210" s="1"/>
+    <row r="210" ht="13" spans="1:2">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" ht="14" spans="1:2">
-      <c r="A211" s="1"/>
+    <row r="211" ht="13" spans="1:2">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" ht="14" spans="1:2">
-      <c r="A212" s="1"/>
+    <row r="212" ht="13" spans="1:2">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" ht="14" spans="1:2">
-      <c r="A213" s="1"/>
+    <row r="213" ht="13" spans="1:2">
+      <c r="A213" s="1">
+        <v>3</v>
+      </c>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" ht="14" spans="1:2">
-      <c r="A214" s="1"/>
+    <row r="214" ht="13" spans="1:2">
+      <c r="A214" s="1">
+        <v>3</v>
+      </c>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" ht="14" spans="1:2">
-      <c r="A215" s="1"/>
+    <row r="215" ht="13" spans="1:2">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" ht="14" spans="1:2">
-      <c r="A216" s="1"/>
+    <row r="216" ht="13" spans="1:2">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" ht="14" spans="1:2">
-      <c r="A217" s="1"/>
+    <row r="217" ht="13" spans="1:2">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" ht="14" spans="1:2">
-      <c r="A218" s="1"/>
+    <row r="218" ht="13" spans="1:2">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" ht="14" spans="1:2">
-      <c r="A219" s="1"/>
+    <row r="219" ht="13" spans="1:2">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" ht="14" spans="1:2">
-      <c r="A220" s="1"/>
+    <row r="220" ht="13" spans="1:2">
+      <c r="A220" s="1">
+        <v>3</v>
+      </c>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" ht="14" spans="1:2">
-      <c r="A221" s="1"/>
+    <row r="221" ht="13" spans="1:2">
+      <c r="A221" s="1">
+        <v>3</v>
+      </c>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" ht="14" spans="1:2">
-      <c r="A222" s="1"/>
+    <row r="222" ht="13" spans="1:2">
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" ht="14" spans="1:2">
-      <c r="A223" s="1"/>
+    <row r="223" ht="13" spans="1:2">
+      <c r="A223" s="1">
+        <v>3</v>
+      </c>
       <c r="B223" s="2"/>
     </row>
     <row r="224" ht="14" spans="2:2">
